--- a/outputs/products.xlsx
+++ b/outputs/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kalsersenmel  </t>
+          <t xml:space="preserve"> Dallnayr KaffeeAktion</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.29</v>
+        <v>4.99</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kalsersennetascn</t>
+          <t xml:space="preserve"> Dallmayr KaffeeAktion</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.29</v>
+        <v>4.99</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -479,392 +479,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aufba.Brotchen 6er  </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aufba.Brotchen 6er  </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saatenriegel  </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mohweckerl4er</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aufba.Brotchen 6er  </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feinkost Waage  </t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feinkost Waage  </t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schard.Pizzakase  </t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schard.Pizzakase  </t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Schrd.Hasertopf1.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>153.45</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schardinger Jogh  </t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soletti  </t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schard.Butter  </t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SchoglJauseneler  </t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philadelphia Krau  </t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PhiladelphiaLipt  </t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NFUleTonatenpAktion</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trauben welB  </t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schardinger Obers  </t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SchardKaseauf  Onega Beeren</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Papr1kaMix3er  </t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NFU Bio RamiroAktlon</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kelly Chips Party  </t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNI Kasescheiben  </t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kotanyi rot  </t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ferrero NutellaAktion</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Champignon  </t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Gebindeautomat-</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
           <t>Total price</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>83.65</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
